--- a/Output/1968/Kentucky-Michigan/Kentucky-Michigan.xlsx
+++ b/Output/1968/Kentucky-Michigan/Kentucky-Michigan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/Kentucky-Michigan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{6C08F16C-1185-B34A-8381-247E3A81DBAF}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" activeTab="5" xr2:uid="{6C08F16C-1185-B34A-8381-247E3A81DBAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Kentucky" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5471" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="769">
   <si>
     <t>Name</t>
   </si>
@@ -695,9 +695,6 @@
   </si>
   <si>
     <t>MORGAN CITY</t>
-  </si>
-  <si>
-    <t>1,600 Potential: N</t>
   </si>
   <si>
     <t>NATCHITOCHES</t>
@@ -2719,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2DE4EB-5198-464E-8E33-658C5A036677}">
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2762,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4203,8 +4200,8 @@
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
-        <v>17</v>
+      <c r="D47" s="1">
+        <v>2000</v>
       </c>
       <c r="E47">
         <v>1959</v>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -5582,7 +5579,7 @@
         <v>19</v>
       </c>
       <c r="L91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -6703,7 +6700,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -7293,7 +7290,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8081,7 +8078,7 @@
         <v>10000</v>
       </c>
       <c r="I26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -8321,8 +8318,8 @@
       <c r="E34" s="2">
         <v>22920</v>
       </c>
-      <c r="F34" t="s">
-        <v>222</v>
+      <c r="F34" s="1">
+        <v>1600</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -8339,7 +8336,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8368,13 +8365,13 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>17</v>
+      <c r="D36" s="1">
+        <v>37500</v>
       </c>
       <c r="E36">
         <v>1965</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8447,7 +8444,7 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
@@ -8459,12 +8456,12 @@
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8499,7 +8496,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8534,7 +8531,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8563,7 +8560,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8592,7 +8589,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8627,7 +8624,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8662,7 +8659,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8697,7 +8694,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8732,7 +8729,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8767,7 +8764,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8802,7 +8799,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8831,7 +8828,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8866,7 +8863,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8895,7 +8892,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8996,24 +8993,24 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9024,12 +9021,12 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -9040,18 +9037,18 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -9062,13 +9059,13 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -9126,12 +9123,12 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9166,7 +9163,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9184,7 +9181,7 @@
         <v>6000</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -9195,7 +9192,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9230,7 +9227,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9265,7 +9262,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9300,7 +9297,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9335,7 +9332,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9364,7 +9361,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9399,7 +9396,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9434,7 +9431,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9469,7 +9466,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9504,7 +9501,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9516,7 +9513,7 @@
         <v>22313</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="1">
         <v>4300</v>
@@ -9533,7 +9530,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9568,7 +9565,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9597,7 +9594,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -9632,7 +9629,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9667,7 +9664,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9696,7 +9693,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -9728,7 +9725,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9757,7 +9754,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9786,7 +9783,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9821,7 +9818,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9850,7 +9847,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9879,7 +9876,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9914,7 +9911,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9943,7 +9940,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9978,7 +9975,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10013,7 +10010,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10045,7 +10042,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10080,7 +10077,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10109,22 +10106,22 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
         <v>300</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>301</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
@@ -10141,7 +10138,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10170,7 +10167,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10202,7 +10199,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -10237,7 +10234,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10266,7 +10263,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10295,7 +10292,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10330,7 +10327,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10365,7 +10362,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10400,7 +10397,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10435,7 +10432,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10464,7 +10461,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10499,7 +10496,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10534,7 +10531,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10566,42 +10563,42 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" t="s">
         <v>319</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10630,13 +10627,13 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
-        <v>17</v>
+      <c r="D48" s="1">
+        <v>10000</v>
       </c>
       <c r="E48" s="3">
         <v>24108</v>
@@ -10659,7 +10656,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10694,7 +10691,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10729,7 +10726,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10764,7 +10761,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -10799,7 +10796,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -10834,7 +10831,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -10866,7 +10863,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -10901,7 +10898,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10936,7 +10933,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10965,7 +10962,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -11000,7 +10997,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -11035,7 +11032,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -11070,7 +11067,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -11099,7 +11096,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -11128,7 +11125,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -11163,7 +11160,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -11198,7 +11195,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -11233,7 +11230,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -11268,7 +11265,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -11303,7 +11300,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -11332,13 +11329,13 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -11349,227 +11346,227 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -11627,12 +11624,12 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11667,7 +11664,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11702,7 +11699,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11737,7 +11734,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11752,7 +11749,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H5" s="1">
         <v>1000</v>
@@ -11766,7 +11763,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11801,7 +11798,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11836,7 +11833,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11871,7 +11868,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11906,7 +11903,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11941,7 +11938,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11976,7 +11973,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12011,7 +12008,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12046,7 +12043,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12075,7 +12072,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12110,7 +12107,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12145,7 +12142,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12180,7 +12177,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12209,7 +12206,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12238,7 +12235,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12273,7 +12270,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12308,7 +12305,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12343,7 +12340,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12378,7 +12375,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12436,7 +12433,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12471,7 +12468,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12506,7 +12503,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12541,7 +12538,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12576,7 +12573,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12611,7 +12608,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12646,7 +12643,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12675,7 +12672,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12704,7 +12701,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12733,7 +12730,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12768,7 +12765,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12803,7 +12800,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12832,7 +12829,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12852,8 +12849,8 @@
       <c r="H38">
         <v>525</v>
       </c>
-      <c r="I38" t="s">
-        <v>17</v>
+      <c r="I38">
+        <v>12</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -12861,7 +12858,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12896,7 +12893,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12931,7 +12928,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12966,7 +12963,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -13001,7 +12998,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -13036,7 +13033,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -13071,7 +13068,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -13100,7 +13097,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -13135,7 +13132,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -13164,7 +13161,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -13193,7 +13190,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -13222,7 +13219,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -13251,7 +13248,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13286,7 +13283,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -13315,7 +13312,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13344,7 +13341,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -13379,7 +13376,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -13414,7 +13411,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -13449,134 +13446,134 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -13634,12 +13631,12 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -13674,7 +13671,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -13709,7 +13706,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -13744,7 +13741,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -13773,7 +13770,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -13808,7 +13805,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -13843,7 +13840,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -13878,7 +13875,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -13907,7 +13904,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -13942,7 +13939,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -13977,7 +13974,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -14012,7 +14009,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -14047,7 +14044,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -14082,7 +14079,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -14117,7 +14114,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -14152,7 +14149,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -14187,7 +14184,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -14222,7 +14219,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -14257,7 +14254,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -14292,7 +14289,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -14327,7 +14324,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -14362,7 +14359,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -14397,7 +14394,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -14432,7 +14429,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -14467,7 +14464,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -14502,7 +14499,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -14537,7 +14534,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -14572,7 +14569,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -14607,7 +14604,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -14642,7 +14639,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -14677,7 +14674,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -14712,7 +14709,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -14747,7 +14744,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -14782,7 +14779,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -14811,7 +14808,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -14846,7 +14843,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -14881,7 +14878,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -14916,7 +14913,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -14951,7 +14948,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -14986,7 +14983,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -15021,7 +15018,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -15056,7 +15053,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -15085,7 +15082,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -15120,7 +15117,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -15155,7 +15152,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -15190,7 +15187,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -15225,7 +15222,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -15260,7 +15257,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -15295,7 +15292,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -15330,7 +15327,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -15365,7 +15362,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -15400,7 +15397,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -15435,7 +15432,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -15470,7 +15467,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -15505,7 +15502,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -15540,7 +15537,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -15575,7 +15572,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -15610,7 +15607,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -15645,7 +15642,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -15680,7 +15677,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -15715,7 +15712,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -15750,7 +15747,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -15785,7 +15782,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -15820,7 +15817,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -15849,7 +15846,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -15884,7 +15881,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -15954,7 +15951,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -16018,7 +16015,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -16047,7 +16044,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -16082,7 +16079,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -16117,7 +16114,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -16146,7 +16143,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -16175,7 +16172,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -16210,7 +16207,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -16245,7 +16242,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -16280,7 +16277,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -16315,7 +16312,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -16350,7 +16347,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -16385,7 +16382,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -16420,7 +16417,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -16455,7 +16452,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -16490,7 +16487,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -16525,7 +16522,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -16560,7 +16557,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -16595,7 +16592,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -16625,12 +16622,12 @@
         <v>19</v>
       </c>
       <c r="L88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -16665,7 +16662,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -16700,7 +16697,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -16735,7 +16732,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -16770,7 +16767,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -16805,7 +16802,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -16834,7 +16831,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -16869,7 +16866,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -16904,7 +16901,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -16939,7 +16936,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -16974,7 +16971,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -17009,7 +17006,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -17044,7 +17041,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -17079,7 +17076,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -17114,7 +17111,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -17149,7 +17146,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -17184,7 +17181,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -17219,7 +17216,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -17286,7 +17283,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -17321,7 +17318,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -17356,7 +17353,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -17391,7 +17388,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -17461,7 +17458,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -17496,7 +17493,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -17531,7 +17528,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -17566,7 +17563,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -17601,7 +17598,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -17636,7 +17633,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -17671,7 +17668,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -17706,7 +17703,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -17741,7 +17738,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -17776,7 +17773,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -17811,7 +17808,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -17846,7 +17843,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -17881,7 +17878,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -17916,7 +17913,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -17951,7 +17948,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -17986,7 +17983,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -18021,7 +18018,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -18056,7 +18053,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -18091,7 +18088,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -18126,7 +18123,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -18161,7 +18158,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -18196,7 +18193,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -18231,7 +18228,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -18266,7 +18263,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -18301,7 +18298,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -18336,7 +18333,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -18371,7 +18368,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -18406,7 +18403,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -18441,7 +18438,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -18476,7 +18473,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -18511,7 +18508,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -18546,7 +18543,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -18581,7 +18578,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -18616,7 +18613,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -18651,7 +18648,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -18686,7 +18683,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -18721,7 +18718,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -18756,7 +18753,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -18791,7 +18788,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -18826,7 +18823,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -18861,7 +18858,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -18890,7 +18887,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -18925,7 +18922,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -18960,7 +18957,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -18995,7 +18992,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -19030,7 +19027,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -19065,7 +19062,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -19100,7 +19097,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -19135,7 +19132,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -19170,7 +19167,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -19205,7 +19202,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -19240,7 +19237,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -19275,7 +19272,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -19310,7 +19307,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -19345,7 +19342,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -19380,7 +19377,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -19415,7 +19412,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -19450,7 +19447,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -19485,7 +19482,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -19520,7 +19517,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -19549,7 +19546,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -19584,7 +19581,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -19619,7 +19616,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -19648,7 +19645,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -19683,7 +19680,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -19718,7 +19715,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -19753,7 +19750,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -19788,7 +19785,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -19823,7 +19820,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -19858,7 +19855,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -19893,7 +19890,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -19928,7 +19925,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -19963,7 +19960,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -19998,7 +19995,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -20068,7 +20065,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -20103,7 +20100,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -20138,7 +20135,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -20173,7 +20170,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -20208,7 +20205,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -20243,7 +20240,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -20278,7 +20275,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -20313,7 +20310,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -20348,7 +20345,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -20383,7 +20380,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -20418,7 +20415,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -20447,7 +20444,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -20482,7 +20479,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -20517,7 +20514,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -20549,7 +20546,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -20584,7 +20581,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -20619,7 +20616,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -20654,7 +20651,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -20689,7 +20686,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -20724,7 +20721,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -20759,7 +20756,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -20794,7 +20791,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -20829,7 +20826,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -20864,7 +20861,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -20899,7 +20896,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -20934,7 +20931,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -20969,7 +20966,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -21004,7 +21001,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -21039,7 +21036,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -21074,7 +21071,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -21109,7 +21106,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -21144,7 +21141,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -21179,7 +21176,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -21214,7 +21211,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -21249,7 +21246,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -21284,7 +21281,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -21319,7 +21316,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -21354,7 +21351,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -21389,7 +21386,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -21424,7 +21421,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -21459,7 +21456,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -21494,7 +21491,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -21523,7 +21520,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -21558,7 +21555,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -21593,7 +21590,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -21625,7 +21622,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -21660,7 +21657,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -21695,7 +21692,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -21730,7 +21727,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -21765,7 +21762,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -21800,7 +21797,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -21835,7 +21832,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -21870,7 +21867,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -21905,7 +21902,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -21940,7 +21937,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -21975,7 +21972,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -22010,7 +22007,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -22045,7 +22042,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -22080,7 +22077,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -22115,7 +22112,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -22150,7 +22147,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -22185,7 +22182,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -22220,7 +22217,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -22255,7 +22252,7 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -22290,7 +22287,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -22325,310 +22322,310 @@
     </row>
     <row r="253" spans="1:12">
       <c r="A253" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="254" spans="1:12">
       <c r="A254" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="255" spans="1:12">
       <c r="A255" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="256" spans="1:12">
       <c r="A256" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -22644,7 +22641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63E69CC-5384-9C43-8777-4FA2C3A0B706}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -22686,12 +22683,12 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -22726,7 +22723,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -22755,7 +22752,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -22790,7 +22787,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -22819,7 +22816,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -22854,7 +22851,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -22889,7 +22886,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22924,7 +22921,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22953,7 +22950,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22988,7 +22985,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -23023,7 +23020,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -23058,7 +23055,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -23093,7 +23090,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -23128,7 +23125,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -23163,7 +23160,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -23198,7 +23195,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -23227,7 +23224,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -23262,7 +23259,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -23297,7 +23294,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -23326,7 +23323,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -23361,7 +23358,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -23396,7 +23393,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -23425,7 +23422,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -23454,7 +23451,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -23489,7 +23486,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -23524,7 +23521,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -23559,7 +23556,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -23588,7 +23585,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -23617,7 +23614,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -23652,7 +23649,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -23687,7 +23684,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -23722,7 +23719,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -23754,7 +23751,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -23789,7 +23786,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -23818,7 +23815,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -23847,7 +23844,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -23882,7 +23879,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -23917,7 +23914,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -23952,7 +23949,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -23987,7 +23984,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -24022,7 +24019,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -24057,7 +24054,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -24092,7 +24089,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -24127,7 +24124,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -24162,7 +24159,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -24197,7 +24194,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -24232,7 +24229,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -24267,7 +24264,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -24302,7 +24299,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -24331,7 +24328,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -24361,12 +24358,12 @@
         <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -24396,12 +24393,12 @@
         <v>19</v>
       </c>
       <c r="L52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -24430,7 +24427,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -24459,7 +24456,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -24488,7 +24485,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -24517,7 +24514,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -24546,7 +24543,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -24575,7 +24572,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -24604,7 +24601,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -24633,7 +24630,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -24668,7 +24665,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -24703,7 +24700,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -24738,7 +24735,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -24773,7 +24770,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -24808,7 +24805,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -24837,7 +24834,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -24872,7 +24869,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -24901,7 +24898,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -24930,7 +24927,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -24959,7 +24956,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -24988,7 +24985,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -25023,7 +25020,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -25058,7 +25055,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -25090,7 +25087,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -25125,7 +25122,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -25160,7 +25157,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -25195,7 +25192,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -25230,7 +25227,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -25265,7 +25262,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -25297,7 +25294,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -25326,7 +25323,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -25355,7 +25352,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -25384,7 +25381,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -25413,7 +25410,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -25442,7 +25439,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -25471,7 +25468,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -25506,7 +25503,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -25535,7 +25532,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -25570,7 +25567,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -25599,7 +25596,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -25634,7 +25631,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -25669,7 +25666,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -25701,7 +25698,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -25736,7 +25733,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -25771,7 +25768,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -25806,7 +25803,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -25841,7 +25838,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -25876,7 +25873,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -25905,7 +25902,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -25934,7 +25931,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -25969,7 +25966,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -25998,7 +25995,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -26027,7 +26024,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -26056,7 +26053,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -26085,7 +26082,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -26117,7 +26114,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -26146,7 +26143,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -26181,629 +26178,629 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
